--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_8店舗登録画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_8店舗登録画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78628411-A577-49CD-9853-B0614CFB8E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EBC659-ADE2-4B25-9351-4149FDE81A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="クラス" sheetId="7" r:id="rId3"/>
     <sheet name="テーブル" sheetId="8" r:id="rId4"/>
     <sheet name="フロー" sheetId="9" r:id="rId5"/>
-    <sheet name="地方区分表" sheetId="10" r:id="rId6"/>
-    <sheet name="×" sheetId="6" r:id="rId7"/>
+    <sheet name="登録読込フォーマット" sheetId="11" r:id="rId6"/>
+    <sheet name="地方区分表" sheetId="10" r:id="rId7"/>
+    <sheet name="×" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">地方区分表!$B$2:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">地方区分表!$B$2:$D$49</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="265">
   <si>
     <t>作成日</t>
   </si>
@@ -2101,6 +2102,59 @@
   </si>
   <si>
     <t>Area_ComboBox_Selected</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>店舗情報</t>
+  </si>
+  <si>
+    <t>店舗名</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>メール</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>テストステーキ食堂</t>
+  </si>
+  <si>
+    <t>000-0000-0000</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>テスト県テスト市テスト区テスト</t>
+  </si>
+  <si>
+    <t>0-00-0 テストビル</t>
+  </si>
+  <si>
+    <t>関東エリアA1</t>
+  </si>
+  <si>
+    <t>（店舗責任者ID）</t>
+    <rPh sb="1" eb="3">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セキニンシャ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ステーキ</t>
+  </si>
+  <si>
+    <t>地域</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2180,7 +2234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2320,13 +2374,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2413,14 +2482,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2456,11 +2525,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -2636,8 +2709,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="66671" y="85725"/>
-          <a:ext cx="10380758" cy="5092560"/>
+          <a:off x="64766" y="87630"/>
+          <a:ext cx="10527443" cy="5204955"/>
           <a:chOff x="59945" y="83797"/>
           <a:chExt cx="10410255" cy="5092560"/>
         </a:xfrm>
@@ -6409,7 +6482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9161,256 +9234,256 @@
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="33"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="34"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="33"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32" t="s">
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32" t="s">
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32" t="s">
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
@@ -10521,20 +10594,20 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
       <c r="T74" s="31"/>
-      <c r="U74" s="34" t="s">
+      <c r="U74" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="V74" s="34"/>
-      <c r="W74" s="34"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
-      <c r="AD74" s="34"/>
-      <c r="AE74" s="34"/>
-      <c r="AF74" s="34"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="32"/>
+      <c r="Z74" s="32"/>
+      <c r="AA74" s="32"/>
+      <c r="AB74" s="32"/>
+      <c r="AC74" s="32"/>
+      <c r="AD74" s="32"/>
+      <c r="AE74" s="32"/>
+      <c r="AF74" s="32"/>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
@@ -11742,118 +11815,88 @@
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="L101:T101"/>
-    <mergeCell ref="U101:AF101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="L102:T102"/>
-    <mergeCell ref="U102:AF102"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="L99:T99"/>
-    <mergeCell ref="U99:AF99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:T100"/>
-    <mergeCell ref="U100:AF100"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:T97"/>
-    <mergeCell ref="U97:AF97"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="L98:T98"/>
-    <mergeCell ref="U98:AF98"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:T95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:T96"/>
-    <mergeCell ref="U96:AF96"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:T93"/>
-    <mergeCell ref="U93:AF93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:T94"/>
-    <mergeCell ref="U94:AF94"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:T91"/>
-    <mergeCell ref="U91:AF91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:T92"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:T90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="A42:AF46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="U49:AF49"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:AF59"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="U50:AF50"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="U54:AF54"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:AF51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:T74"/>
@@ -11878,88 +11921,118 @@
     <mergeCell ref="U63:AF63"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:AF51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="A42:AF46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="U49:AF49"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:AF59"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="U50:AF50"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="U54:AF54"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:T93"/>
+    <mergeCell ref="U93:AF93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:T94"/>
+    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:T91"/>
+    <mergeCell ref="U91:AF91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:T92"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:T97"/>
+    <mergeCell ref="U97:AF97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:T98"/>
+    <mergeCell ref="U98:AF98"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:T95"/>
+    <mergeCell ref="U95:AF95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:T96"/>
+    <mergeCell ref="U96:AF96"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:T101"/>
+    <mergeCell ref="U101:AF101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:T102"/>
+    <mergeCell ref="U102:AF102"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:T99"/>
+    <mergeCell ref="U99:AF99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:T100"/>
+    <mergeCell ref="U100:AF100"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -11975,127 +12048,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
@@ -12155,10 +12228,10 @@
       <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="41" t="s">
         <v>19</v>
       </c>
@@ -12173,53 +12246,53 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="43"/>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
       <c r="BD5" s="41" t="s">
         <v>18</v>
       </c>
@@ -12252,10 +12325,10 @@
       <c r="CE5" s="43"/>
     </row>
     <row r="6" spans="1:83" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="34">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="35" t="s">
         <v>21</v>
       </c>
@@ -12349,11 +12422,11 @@
       <c r="CE6" s="37"/>
     </row>
     <row r="7" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="34">
         <f xml:space="preserve"> $A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -12437,11 +12510,11 @@
       <c r="CE7" s="37"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="34">
         <f xml:space="preserve"> $A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -12639,10 +12712,10 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="41" t="s">
         <v>19</v>
       </c>
@@ -12657,57 +12730,57 @@
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="43"/>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32" t="s">
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32" t="s">
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32" t="s">
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="32"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="32"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="33"/>
       <c r="BD11" s="41" t="s">
         <v>18</v>
       </c>
@@ -12740,10 +12813,10 @@
       <c r="CE11" s="43"/>
     </row>
     <row r="12" spans="1:83" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="34">
         <v>1</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="35" t="s">
         <v>22</v>
       </c>
@@ -12841,11 +12914,11 @@
       <c r="CE12" s="37"/>
     </row>
     <row r="13" spans="1:83" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="A13" s="34">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="35" t="s">
         <v>195</v>
       </c>
@@ -12943,11 +13016,11 @@
       <c r="CE13" s="37"/>
     </row>
     <row r="14" spans="1:83" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="A14" s="34">
         <f xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="35" t="s">
         <v>195</v>
       </c>
@@ -13045,11 +13118,11 @@
       <c r="CE14" s="37"/>
     </row>
     <row r="15" spans="1:83" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+      <c r="A15" s="34">
         <f xml:space="preserve"> $A14+1</f>
         <v>4</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="35" t="s">
         <v>229</v>
       </c>
@@ -13147,11 +13220,11 @@
       <c r="CE15" s="37"/>
     </row>
     <row r="16" spans="1:83" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
+      <c r="A16" s="34">
         <f t="shared" ref="A16:A28" si="0" xml:space="preserve"> $A15+1</f>
         <v>5</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="35" t="s">
         <v>195</v>
       </c>
@@ -13249,11 +13322,11 @@
       <c r="CE16" s="37"/>
     </row>
     <row r="17" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33">
+      <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="35" t="s">
         <v>195</v>
       </c>
@@ -13351,11 +13424,11 @@
       <c r="CE17" s="37"/>
     </row>
     <row r="18" spans="1:83" ht="28.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="35" t="s">
         <v>195</v>
       </c>
@@ -13453,11 +13526,11 @@
       <c r="CE18" s="37"/>
     </row>
     <row r="19" spans="1:83" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33">
+      <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>22</v>
       </c>
@@ -13555,11 +13628,11 @@
       <c r="CE19" s="37"/>
     </row>
     <row r="20" spans="1:83" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
+      <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="35" t="s">
         <v>22</v>
       </c>
@@ -13607,24 +13680,24 @@
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
       <c r="AM20" s="31"/>
-      <c r="AN20" s="34" t="s">
+      <c r="AN20" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="34"/>
-      <c r="AW20" s="34"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="34"/>
-      <c r="BC20" s="34"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
+      <c r="BA20" s="32"/>
+      <c r="BB20" s="32"/>
+      <c r="BC20" s="32"/>
       <c r="BD20" s="35" t="s">
         <v>191</v>
       </c>
@@ -13657,11 +13730,11 @@
       <c r="CE20" s="37"/>
     </row>
     <row r="21" spans="1:83" ht="202.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33">
+      <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="35" t="s">
         <v>195</v>
       </c>
@@ -13759,11 +13832,11 @@
       <c r="CE21" s="37"/>
     </row>
     <row r="22" spans="1:83" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33">
+      <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="35" t="s">
         <v>195</v>
       </c>
@@ -13861,11 +13934,11 @@
       <c r="CE22" s="37"/>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A23" s="33">
+      <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
@@ -13949,11 +14022,11 @@
       <c r="CE23" s="37"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A24" s="33">
+      <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="35"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
@@ -14037,11 +14110,11 @@
       <c r="CE24" s="37"/>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A25" s="33">
+      <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
@@ -14125,11 +14198,11 @@
       <c r="CE25" s="37"/>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
+      <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B26" s="33"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="35"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
@@ -14213,11 +14286,11 @@
       <c r="CE26" s="37"/>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A27" s="33">
+      <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="35"/>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
@@ -14301,11 +14374,11 @@
       <c r="CE27" s="37"/>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A28" s="33">
+      <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -14389,10 +14462,10 @@
       <c r="CE28" s="37"/>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="41" t="s">
         <v>19</v>
       </c>
@@ -14407,55 +14480,55 @@
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
       <c r="L31" s="43"/>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32" t="s">
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32" t="s">
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-      <c r="AV31" s="32"/>
-      <c r="AW31" s="32"/>
-      <c r="AX31" s="32"/>
-      <c r="AY31" s="32"/>
-      <c r="AZ31" s="32"/>
-      <c r="BA31" s="32"/>
-      <c r="BB31" s="32"/>
-      <c r="BC31" s="32"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="33"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="33"/>
+      <c r="AR31" s="33"/>
+      <c r="AS31" s="33"/>
+      <c r="AT31" s="33"/>
+      <c r="AU31" s="33"/>
+      <c r="AV31" s="33"/>
+      <c r="AW31" s="33"/>
+      <c r="AX31" s="33"/>
+      <c r="AY31" s="33"/>
+      <c r="AZ31" s="33"/>
+      <c r="BA31" s="33"/>
+      <c r="BB31" s="33"/>
+      <c r="BC31" s="33"/>
       <c r="BD31" s="41" t="s">
         <v>18</v>
       </c>
@@ -14488,10 +14561,10 @@
       <c r="CE31" s="43"/>
     </row>
     <row r="32" spans="1:83" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+      <c r="A32" s="34">
         <v>1</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="35" t="s">
         <v>22</v>
       </c>
@@ -14587,11 +14660,11 @@
       <c r="CE32" s="37"/>
     </row>
     <row r="33" spans="1:83" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="33">
+      <c r="A33" s="34">
         <f xml:space="preserve"> $A32 + 1</f>
         <v>2</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="35" t="s">
         <v>195</v>
       </c>
@@ -14687,11 +14760,11 @@
       <c r="CE33" s="37"/>
     </row>
     <row r="34" spans="1:83" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33">
+      <c r="A34" s="34">
         <f t="shared" ref="A34:A36" si="1" xml:space="preserve"> $A33 + 1</f>
         <v>3</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="35" t="s">
         <v>195</v>
       </c>
@@ -14787,11 +14860,11 @@
       <c r="CE34" s="37"/>
     </row>
     <row r="35" spans="1:83" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
+      <c r="A35" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="35" t="s">
         <v>22</v>
       </c>
@@ -14887,11 +14960,11 @@
       <c r="CE35" s="37"/>
     </row>
     <row r="36" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A36" s="33">
+      <c r="A36" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="35"/>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
@@ -14976,6 +15049,194 @@
     </row>
   </sheetData>
   <mergeCells count="212">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="V19:AD19"/>
+    <mergeCell ref="AE19:AM19"/>
+    <mergeCell ref="AN19:BC19"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="M36:X36"/>
+    <mergeCell ref="Y36:AJ36"/>
+    <mergeCell ref="AK36:BC36"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="BD31:CE31"/>
+    <mergeCell ref="BD32:CE32"/>
+    <mergeCell ref="BD33:CE33"/>
+    <mergeCell ref="BD34:CE34"/>
+    <mergeCell ref="BD35:CE35"/>
+    <mergeCell ref="BD36:CE36"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="M35:X35"/>
+    <mergeCell ref="Y35:AJ35"/>
+    <mergeCell ref="AK35:BC35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="M34:X34"/>
+    <mergeCell ref="Y34:AJ34"/>
+    <mergeCell ref="AK34:BC34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="M33:X33"/>
+    <mergeCell ref="Y33:AJ33"/>
+    <mergeCell ref="AK33:BC33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="M32:X32"/>
+    <mergeCell ref="Y32:AJ32"/>
+    <mergeCell ref="AK32:BC32"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="M31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="V17:AD17"/>
+    <mergeCell ref="AE17:AM17"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AK31:BC31"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="AN17:BC17"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="V21:AD21"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AN21:BC21"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="V22:AD22"/>
+    <mergeCell ref="AE22:AM22"/>
+    <mergeCell ref="AN22:BC22"/>
+    <mergeCell ref="BD22:CE22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="V23:AD23"/>
+    <mergeCell ref="AE23:AM23"/>
+    <mergeCell ref="AN23:BC23"/>
+    <mergeCell ref="BD23:CE23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:U24"/>
+    <mergeCell ref="V24:AD24"/>
+    <mergeCell ref="AE24:AM24"/>
+    <mergeCell ref="AN24:BC24"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:U25"/>
+    <mergeCell ref="V25:AD25"/>
+    <mergeCell ref="AE25:AM25"/>
+    <mergeCell ref="AN25:BC25"/>
+    <mergeCell ref="BD25:CE25"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="G28:L28"/>
@@ -15000,194 +15261,6 @@
     <mergeCell ref="AE27:AM27"/>
     <mergeCell ref="AN27:BC27"/>
     <mergeCell ref="BD27:CE27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:U24"/>
-    <mergeCell ref="V24:AD24"/>
-    <mergeCell ref="AE24:AM24"/>
-    <mergeCell ref="AN24:BC24"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:U25"/>
-    <mergeCell ref="V25:AD25"/>
-    <mergeCell ref="AE25:AM25"/>
-    <mergeCell ref="AN25:BC25"/>
-    <mergeCell ref="BD25:CE25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="V22:AD22"/>
-    <mergeCell ref="AE22:AM22"/>
-    <mergeCell ref="AN22:BC22"/>
-    <mergeCell ref="BD22:CE22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="V23:AD23"/>
-    <mergeCell ref="AE23:AM23"/>
-    <mergeCell ref="AN23:BC23"/>
-    <mergeCell ref="BD23:CE23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="AK31:BC31"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="AN17:BC17"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="M33:X33"/>
-    <mergeCell ref="Y33:AJ33"/>
-    <mergeCell ref="AK33:BC33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="M32:X32"/>
-    <mergeCell ref="Y32:AJ32"/>
-    <mergeCell ref="AK32:BC32"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="M31:X31"/>
-    <mergeCell ref="Y31:AJ31"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="V17:AD17"/>
-    <mergeCell ref="AE17:AM17"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK35:BC35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="M34:X34"/>
-    <mergeCell ref="Y34:AJ34"/>
-    <mergeCell ref="AK34:BC34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="M36:X36"/>
-    <mergeCell ref="Y36:AJ36"/>
-    <mergeCell ref="AK36:BC36"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="BD31:CE31"/>
-    <mergeCell ref="BD32:CE32"/>
-    <mergeCell ref="BD33:CE33"/>
-    <mergeCell ref="BD34:CE34"/>
-    <mergeCell ref="BD35:CE35"/>
-    <mergeCell ref="BD36:CE36"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="M35:X35"/>
-    <mergeCell ref="Y35:AJ35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="V19:AD19"/>
-    <mergeCell ref="AE19:AM19"/>
-    <mergeCell ref="AN19:BC19"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="BD18:CE18"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -15207,47 +15280,47 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
     </row>
     <row r="3" spans="1:35" ht="73.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44">
@@ -15266,31 +15339,31 @@
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
       <c r="L3" s="45"/>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
     </row>
     <row r="4" spans="1:35" ht="41.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44">
@@ -15310,31 +15383,31 @@
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
     </row>
     <row r="5" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44">
@@ -15354,31 +15427,31 @@
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
       <c r="L5" s="45"/>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
     </row>
     <row r="6" spans="1:35" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
@@ -15398,31 +15471,31 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
@@ -15440,38 +15513,32 @@
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -15484,6 +15551,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15507,10 +15580,324 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20496566-D842-4D55-9578-03496A53237B}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{6F4DDD89-A319-4371-BDA5-A00F789236A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29E3E7-8969-42B0-8FB8-C6642BE541E2}">
   <dimension ref="B2:AD49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16501,7 +16888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
